--- a/accuracy_table.xlsx
+++ b/accuracy_table.xlsx
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9098901098901099</v>
+        <v>0.8989010989010989</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8417582417582418</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8527472527472527</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8527472527472527</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8483516483516483</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8593406593406593</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8593406593406593</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8549450549450549</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8505494505494505</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8549450549450549</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.8505494505494505</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8703296703296703</v>
+        <v>0.8549450549450549</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8505494505494505</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8615384615384616</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8527472527472527</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="n">
-        <v>0.865934065934066</v>
+        <v>0.8505494505494505</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8637362637362638</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="22">
@@ -605,7 +605,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="23">
@@ -621,7 +621,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8615384615384616</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8549450549450549</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8549450549450549</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +645,7 @@
         <v>51</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8593406593406593</v>
+        <v>0.8527472527472527</v>
       </c>
     </row>
   </sheetData>
